--- a/medicine/Mort/Cimetière_de_Gros-Pin/Cimetière_de_Gros-Pin.xlsx
+++ b/medicine/Mort/Cimetière_de_Gros-Pin/Cimetière_de_Gros-Pin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gros-Pin</t>
+          <t>Cimetière_de_Gros-Pin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Gros-Pin est un ancien cimetière de Québec. Il fut ouvert en 1847 et probablement fermé après 1891. Il était situé dans l’actuel arrondissement La Cité-Limoilou. Le parc Gérard-Marchand occupe une partie de cet ancien cimetière. Il est possible que des sépultures s’y trouvent toujours.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gros-Pin</t>
+          <t>Cimetière_de_Gros-Pin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1847, une épidémie de typhus frappe la ville de Québec. La maladie est introduite au Canada par les milliers d’immigrants qui fuient la famine en Irlande. Malgré une quarantaine à Grosse-Île, plusieurs débarquent à Québec alors qu’ils sont toujours porteurs de la maladie[1]. Environ 300 habitants de la ville vont mourir au cours de l’été et de l’automne[2]. Les immigrants malades sont traités à l’Hôpital de la Marine. Ceux qui meurent, principalement des catholiques, sont inhumés derrière l'hôpital, à quelques mètres seulement du cimetière de la Pointe qui appartient à la fabrique de la paroisse Saint-Roch. Toutefois, ces deux cimetières catholiques – qui, au fil des inhumations, finissent par se toucher et n'en former qu'un seul – atteignent rapidement leur pleine capacité et les citoyens de Saint-Roch, qui habitent tout près, exigent leur fermeture. Aux autorités locales, ils déclarent que « les charretiers qui fournissent de l’eau à une grande partie de la ville, vont la puiser dans la rivière St. Charles près du cimetière en question, à la marée basse, et que les eaux qui filtrent de ce terrain dans la rivière peuvent faire courir le plus grand danger à la salubrité publique »[3].
-Un nouveau cimetière est consacré quelques semaines plus tard sur un terrain situé à l'extérieur du quartier Saint-Roch. Il s’agit du lot 725, localisé dans le village Gros-Pin, hameau situé entre Charlesbourg et Saint-Roch. Ce lopin de terre mesure 1 arpent par 8 arpents[4] et il est délimité aujourd’hui par la 1re Avenue à l’ouest, la 4e Avenue à l’est, la rue des Bouleaux Est au nord et une ligne imaginaire suivant la limite sud du parc Gérard-Marchand. 
-Ce cimetière devient, dans les années qui suivent, un genre de fourre-tout. Outre les victimes du typhus, on y inhume d’autres immigrés qui meurent à l’Hôpital de la Marine, des citoyens de la paroisse Saint-Roch ainsi que des corps non réclamés[2],[4]. Selon leur religion - quand elle est connue - les défunts sont enterrés soit dans la partie catholique (à l’est), soit dans la partie protestante (à l’ouest). De 1880 à 1891, des cadavres d’inconnus, disséqués à l’École de médecine de l’Université Laval, y sont inhumés[4]. Il semble également que des médecins, enseignant l'anatomie, se rendent au cimetière pour y exhumer des cadavres à des fins pédagogiques, puisqu'il y a très peu de corps disponibles pour exercer des dissections[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1847, une épidémie de typhus frappe la ville de Québec. La maladie est introduite au Canada par les milliers d’immigrants qui fuient la famine en Irlande. Malgré une quarantaine à Grosse-Île, plusieurs débarquent à Québec alors qu’ils sont toujours porteurs de la maladie. Environ 300 habitants de la ville vont mourir au cours de l’été et de l’automne. Les immigrants malades sont traités à l’Hôpital de la Marine. Ceux qui meurent, principalement des catholiques, sont inhumés derrière l'hôpital, à quelques mètres seulement du cimetière de la Pointe qui appartient à la fabrique de la paroisse Saint-Roch. Toutefois, ces deux cimetières catholiques – qui, au fil des inhumations, finissent par se toucher et n'en former qu'un seul – atteignent rapidement leur pleine capacité et les citoyens de Saint-Roch, qui habitent tout près, exigent leur fermeture. Aux autorités locales, ils déclarent que « les charretiers qui fournissent de l’eau à une grande partie de la ville, vont la puiser dans la rivière St. Charles près du cimetière en question, à la marée basse, et que les eaux qui filtrent de ce terrain dans la rivière peuvent faire courir le plus grand danger à la salubrité publique ».
+Un nouveau cimetière est consacré quelques semaines plus tard sur un terrain situé à l'extérieur du quartier Saint-Roch. Il s’agit du lot 725, localisé dans le village Gros-Pin, hameau situé entre Charlesbourg et Saint-Roch. Ce lopin de terre mesure 1 arpent par 8 arpents et il est délimité aujourd’hui par la 1re Avenue à l’ouest, la 4e Avenue à l’est, la rue des Bouleaux Est au nord et une ligne imaginaire suivant la limite sud du parc Gérard-Marchand. 
+Ce cimetière devient, dans les années qui suivent, un genre de fourre-tout. Outre les victimes du typhus, on y inhume d’autres immigrés qui meurent à l’Hôpital de la Marine, des citoyens de la paroisse Saint-Roch ainsi que des corps non réclamés,. Selon leur religion - quand elle est connue - les défunts sont enterrés soit dans la partie catholique (à l’est), soit dans la partie protestante (à l’ouest). De 1880 à 1891, des cadavres d’inconnus, disséqués à l’École de médecine de l’Université Laval, y sont inhumés. Il semble également que des médecins, enseignant l'anatomie, se rendent au cimetière pour y exhumer des cadavres à des fins pédagogiques, puisqu'il y a très peu de corps disponibles pour exercer des dissections.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gros-Pin</t>
+          <t>Cimetière_de_Gros-Pin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>La fermeture du cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ignore la date de fermeture du cimetière, mais son abandon se fait possiblement vers la fin du XIXe siècle. Dans un article datant de 1942, G.-A. Desjardins mentionne que jusqu’en 1888, « on pouvait voir une clôture haute de 12 pieds qui entourait les deux cimetières dont un charnier en bois […]. Dans la partie catholique, une grande croix en bois de 10 pieds de haut ornait le centre. Le temps, qui ne respecte rien, a fait disparaître tous ces vestiges »[4].
-En 1902, « à quelques mètres de l’entrée du cimetière », le gouvernement fédéral fait construire une poudrière. Les munitions du capitaine Bernier y seront d’ailleurs conservées. Le bâtiment est désaffecté à compter de 1934[4]. 
-Dans son article de 1942, G.-A. Desjardins précise que de « ce lieu de repos […] peu connu du public, si ce n’est que par quelques octogénaires […] rien n’en marque l’emplacement cependant que l’on peut y voir encore les multiples effondrements occasionnés par l’écroulement des cercueils »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ignore la date de fermeture du cimetière, mais son abandon se fait possiblement vers la fin du XIXe siècle. Dans un article datant de 1942, G.-A. Desjardins mentionne que jusqu’en 1888, « on pouvait voir une clôture haute de 12 pieds qui entourait les deux cimetières dont un charnier en bois […]. Dans la partie catholique, une grande croix en bois de 10 pieds de haut ornait le centre. Le temps, qui ne respecte rien, a fait disparaître tous ces vestiges ».
+En 1902, « à quelques mètres de l’entrée du cimetière », le gouvernement fédéral fait construire une poudrière. Les munitions du capitaine Bernier y seront d’ailleurs conservées. Le bâtiment est désaffecté à compter de 1934. 
+Dans son article de 1942, G.-A. Desjardins précise que de « ce lieu de repos […] peu connu du public, si ce n’est que par quelques octogénaires […] rien n’en marque l’emplacement cependant que l’on peut y voir encore les multiples effondrements occasionnés par l’écroulement des cercueils ».
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gros-Pin</t>
+          <t>Cimetière_de_Gros-Pin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Découvertes d'ossements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Même si rien ne semble l’indiquer, il est possible que les sépultures de l’ancien cimetière de Gros-Pin aient été exhumées pour être inhumées dans un autre cimetière. Toutefois, en août 1951, alors que des travaux sont effectués sur la 4e Avenue à la hauteur de la rue des Bouleaux, des ossements sont mis au jour. L’Action catholique rapporte que les ouvriers « ont découvert quantité d’ossements humains noircis, enfouis à 6 ou 4 pieds sous terre. La plupart des squelettes étaient […] renfermés dans des boites en forme de cercueils. Dans certaines boites, on a découvert jusqu’à trois crânes, avec des tubes de verre et des appareils permettant de conclure que des praticiens avaient fait des recherches sur les cadavres »[6]. 
-Puis, en 1954, des ouvriers qui effectuent des travaux d’excavation à l’angle de la 1re Avenue et de la rue des Bouleaux Est trouvent un cercueil et des ossements humains[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Même si rien ne semble l’indiquer, il est possible que les sépultures de l’ancien cimetière de Gros-Pin aient été exhumées pour être inhumées dans un autre cimetière. Toutefois, en août 1951, alors que des travaux sont effectués sur la 4e Avenue à la hauteur de la rue des Bouleaux, des ossements sont mis au jour. L’Action catholique rapporte que les ouvriers « ont découvert quantité d’ossements humains noircis, enfouis à 6 ou 4 pieds sous terre. La plupart des squelettes étaient […] renfermés dans des boites en forme de cercueils. Dans certaines boites, on a découvert jusqu’à trois crânes, avec des tubes de verre et des appareils permettant de conclure que des praticiens avaient fait des recherches sur les cadavres ». 
+Puis, en 1954, des ouvriers qui effectuent des travaux d’excavation à l’angle de la 1re Avenue et de la rue des Bouleaux Est trouvent un cercueil et des ossements humains.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gros-Pin</t>
+          <t>Cimetière_de_Gros-Pin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Occupation du lot 725</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une dizaine de maisons (bungalows et immeubles à logement) ont été construites entre 1953 et 1956 sur la rue des Bouleaux Est, soit dans la partie la plus à l’ouest du lot 725. Dans la section est, on trouve aujourd’hui un centre communautaire ainsi que le parc Gérard-Marchand. 
 </t>
